--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-5.80323010862968</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.911108443122998</v>
+        <v>-8.670026778595455</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.998336449136988</v>
+        <v>-3.039223710911698</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.499660183957278</v>
+        <v>-5.436974237951094</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.705557248218165</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.17515400683493</v>
+        <v>-8.917576040726811</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.073486267448495</v>
+        <v>-3.128801246954788</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.445235481044223</v>
+        <v>-5.365176049167068</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.665806087167631</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.983053830592162</v>
+        <v>-9.736015168271633</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.957985971778788</v>
+        <v>-3.012541597720261</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.305278763666172</v>
+        <v>-5.236517989141426</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.676830984957296</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.74179205717871</v>
+        <v>-10.50654955971858</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.863119145387641</v>
+        <v>-2.917583125209221</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.530348541818284</v>
+        <v>-5.448063418458036</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.714720463910513</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.51688257001458</v>
+        <v>-11.28415379470006</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.719012168008762</v>
+        <v>-2.765764781456566</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.084948399142763</v>
+        <v>-5.000804168778989</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.750182798731327</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.17144534288952</v>
+        <v>-11.94816921022672</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.691780178097972</v>
+        <v>-2.736909345993401</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.203865785854161</v>
+        <v>-5.135013365209524</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.761284858299716</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.67853641655525</v>
+        <v>-12.44803333272382</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.564771748230387</v>
+        <v>-2.615936467735853</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.76156851895213</v>
+        <v>-4.695295281967311</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.729512277234885</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.63537427743996</v>
+        <v>-13.42047721859587</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.323375868434642</v>
+        <v>-2.362639684656978</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.663310786124975</v>
+        <v>-4.611858035956992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.635116122816124</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.37528577254011</v>
+        <v>-14.16796915704137</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.30970750426788</v>
+        <v>-2.338274909068526</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.253390784150532</v>
+        <v>-4.235428144651684</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.478038889892114</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.07224142201655</v>
+        <v>-14.86378577617059</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.130264401519182</v>
+        <v>-2.162890420200764</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.046322922405793</v>
+        <v>-4.021015501012736</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.26410880327339</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.72923936322005</v>
+        <v>-15.52460666980387</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.131848570163031</v>
+        <v>-2.151290639882995</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.534557896625562</v>
+        <v>-3.504995476808945</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.001683784520663</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.69408971344389</v>
+        <v>-16.49334543397171</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.957642388551024</v>
+        <v>-1.984455424770879</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.898808762934186</v>
+        <v>-2.865685236744619</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.718125383773664</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.3152278371639</v>
+        <v>-17.13386016589747</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.69380630168456</v>
+        <v>-1.707553219668373</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.504848278123807</v>
+        <v>-2.497398757806865</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.439029217665033</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.21305868914095</v>
+        <v>-18.0377396617874</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.526683055909927</v>
+        <v>-1.540312143168164</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.917383557312716</v>
+        <v>-1.904265069865307</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.184410333293388</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.11991013777595</v>
+        <v>-18.9517133231683</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.377601003451193</v>
+        <v>-1.37599065020166</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.519809596918021</v>
+        <v>-1.544004172569531</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.983658013143068</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.89792023414552</v>
+        <v>-19.73954264666916</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.151798056339943</v>
+        <v>-1.13205486365462</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9888905320803455</v>
+        <v>-1.0173662907611</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.853534560486271</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.87947636279541</v>
+        <v>-20.72338992831635</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.055910030327141</v>
+        <v>-1.034909976569013</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6211015606505768</v>
+        <v>-0.6534133640639567</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.798226099711135</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.71492239173163</v>
+        <v>-21.56231850980847</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9107556687209243</v>
+        <v>-0.8828428790623644</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2408487169154848</v>
+        <v>-0.2849043159778931</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.828578527573801</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.37296771716247</v>
+        <v>-22.21098974640463</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6769664168762219</v>
+        <v>-0.6294937267721231</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1100904607569824</v>
+        <v>0.09136846769331415</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.940892735916451</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.98919622731683</v>
+        <v>-22.84037602091493</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3839475869755508</v>
+        <v>-0.3297716378164883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4420850762174721</v>
+        <v>0.4112396107223654</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.124059906823785</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.61892290170101</v>
+        <v>-23.46993249536217</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.130912649953511</v>
+        <v>-0.06314689044473691</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4134260252969337</v>
+        <v>0.3787968842805682</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.373695681914346</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.12312057643873</v>
+        <v>-23.97846372234049</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01318666280071023</v>
+        <v>0.05193445153403523</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7030670410644395</v>
+        <v>0.6425936942385068</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.672266062763696</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.49617265361087</v>
+        <v>-24.35841544311022</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03380703977642879</v>
+        <v>0.03084275165601454</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6176397650221769</v>
+        <v>0.5726022432466392</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.998781779793105</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.76083355555636</v>
+        <v>-24.63203148019946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2501911934662931</v>
+        <v>0.3175772761926571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6059483385845156</v>
+        <v>0.5610810167459203</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.33731409488469</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.76366149297017</v>
+        <v>-24.64679959780493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2716887547324073</v>
+        <v>0.3304077329775487</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4623912379249892</v>
+        <v>0.4041043056736248</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.66263174921064</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.71447371119381</v>
+        <v>-24.61778705470766</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08977120674662357</v>
+        <v>0.149157892436693</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4379871854280118</v>
+        <v>0.379765714690856</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.952419785753826</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.80771709203258</v>
+        <v>-24.72819444457194</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2122758844366544</v>
+        <v>0.2673813870974794</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1517763530050382</v>
+        <v>0.09041272958586814</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.190187742848357</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.84529200118833</v>
+        <v>-24.77054804426492</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1892465237380582</v>
+        <v>0.2189791434916182</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04127731702087022</v>
+        <v>-0.008499618383372298</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.355540894549074</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.60711682789166</v>
+        <v>-24.54566155835259</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04181410143738098</v>
+        <v>0.08861908409655167</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.166379698351747</v>
+        <v>-0.2052376531859899</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.436541300239911</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.14779956729538</v>
+        <v>-24.07385424084531</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05179043620277625</v>
+        <v>0.08906422239317036</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6319158027978425</v>
+        <v>-0.6677887125841719</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.427203697747886</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.22203292440797</v>
+        <v>-24.15362564205995</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1174614272568742</v>
+        <v>0.1508467995032757</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7112420657158607</v>
+        <v>-0.7312471044580182</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.3212245363221</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.79730552791953</v>
+        <v>-23.732001121345</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03511084238241723</v>
+        <v>0.06675493835086914</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.176948370098899</v>
+        <v>-1.196717747389905</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.123839218983311</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.23804162742952</v>
+        <v>-23.17099594457704</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1077130893179724</v>
+        <v>-0.08749857373034739</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.267075782861341</v>
+        <v>-1.27207704254688</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.843377704034613</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88102762123849</v>
+        <v>-22.82643271838849</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3055770621649785</v>
+        <v>-0.2796543025383609</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.296546556558066</v>
+        <v>-1.296559648860908</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.487507759958161</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.15181253756003</v>
+        <v>-22.10190467912737</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4241147720939663</v>
+        <v>-0.4081552549299022</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.509924908272518</v>
+        <v>-1.502396834138525</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.074625571964725</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.36457236768704</v>
+        <v>-21.29319313259395</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3545029978845088</v>
+        <v>-0.3445004785134301</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.608941994664492</v>
+        <v>-1.626472588169563</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.619361084498298</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98578586187022</v>
+        <v>-20.91871399441206</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4267725095708367</v>
+        <v>-0.4030623491244708</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.85414773458718</v>
+        <v>-1.875684572761819</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.133086184179342</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.32492569132842</v>
+        <v>-20.26392865238882</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2651087540812032</v>
+        <v>-0.2517676974854844</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.023038441245446</v>
+        <v>-2.030540330773755</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.635011844000445</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.9972515358057</v>
+        <v>-19.95633808942531</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5500103562200042</v>
+        <v>-0.5323619319893574</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.237110685010509</v>
+        <v>-2.253868832647918</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.135733759119276</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.48721469400057</v>
+        <v>-19.42575942446151</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2760277346512028</v>
+        <v>-0.2543992503566713</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.10733977924332</v>
+        <v>-2.096630275518788</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.64416341401682</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.92673320934628</v>
+        <v>-18.86457095545377</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.03248471718941445</v>
+        <v>0.001437439473497788</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.103163334636809</v>
+        <v>-2.073417622580408</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.173876576299513</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.04230887547916</v>
+        <v>-17.9639121660629</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.03857263801081708</v>
+        <v>-0.006915449739523444</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.004355725090303</v>
+        <v>-1.962853125082031</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.730083174370948</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.70054740209874</v>
+        <v>-17.62825170580673</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01727912591198633</v>
+        <v>0.03930037929176958</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.216634323366049</v>
+        <v>-2.164540050358821</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.318413105757855</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.1892798838265</v>
+        <v>-17.11541311119348</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01841049163455893</v>
+        <v>0.008664390642130577</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.265507889874212</v>
+        <v>-2.208058865004719</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.9459500746792839</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.81334750002918</v>
+        <v>-16.73725503591307</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0007489751010704655</v>
+        <v>0.02955970597752538</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.234413670625113</v>
+        <v>-2.15186670120803</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.6126439854426176</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.15699108166492</v>
+        <v>-16.07423463540237</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02344560055043931</v>
+        <v>0.03813516433885596</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.534698728602943</v>
+        <v>-2.44381196227568</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3201788223537724</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.49048812859833</v>
+        <v>-15.42217249237021</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0005918674669697526</v>
+        <v>0.01002599013767009</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.47604521187201</v>
+        <v>-2.379201447751762</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06940662551025106</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.9696239523431</v>
+        <v>-14.8864747369953</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1346254362823771</v>
+        <v>0.1575893354667646</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.689253363649518</v>
+        <v>-2.566303547662869</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1436423035823591</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.27768265485504</v>
+        <v>-14.19216373269288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2833932734729104</v>
+        <v>0.3055323575782692</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.644084918845564</v>
+        <v>-2.483952962788412</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.319875844874413</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.49586269835853</v>
+        <v>-13.42433944793417</v>
       </c>
       <c r="F51" t="n">
-        <v>0.278680044449889</v>
+        <v>0.2997979289335931</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.736372561576891</v>
+        <v>-2.552818475735891</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4621590284949091</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.89863111962751</v>
+        <v>-12.83425626655474</v>
       </c>
       <c r="F52" t="n">
-        <v>0.357443338345713</v>
+        <v>0.3842956514740932</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.749923095018077</v>
+        <v>-2.562834087409811</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5756198983621046</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.23427530422696</v>
+        <v>-12.18402704592041</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4065394740021858</v>
+        <v>0.4336667254902422</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.78150172947232</v>
+        <v>-2.583912694984991</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.6621731098793404</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.87887165128546</v>
+        <v>-11.8078459083691</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2919163626228741</v>
+        <v>0.3242019814305706</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.895430948801021</v>
+        <v>-2.690562593933691</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.7249653164709828</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.41141097832163</v>
+        <v>-11.35163152354631</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0466975303973448</v>
+        <v>0.07476742769000549</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.376717093565713</v>
+        <v>-3.157551943995218</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.7672959026335272</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.98161686063345</v>
+        <v>-10.91087914837961</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1268093314858666</v>
+        <v>0.1651959634178075</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.447860667207652</v>
+        <v>-3.227111348993309</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.7907026221404335</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.21969720445636</v>
+        <v>-10.15354179819712</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06569446182068933</v>
+        <v>0.1040549091469467</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.800069798255767</v>
+        <v>-3.589637214680704</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.7983508691234296</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.909475088621662</v>
+        <v>-9.850572818136735</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09667627802239737</v>
+        <v>-0.06994179561959274</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.843667166718715</v>
+        <v>-3.625078078473256</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.7931054855822914</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.371368349523879</v>
+        <v>-9.305618804652729</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02104204450574587</v>
+        <v>0.02000232490306535</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.114298158760034</v>
+        <v>-3.90772780452328</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.7780190150128685</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.014066312670332</v>
+        <v>-8.944965138271701</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1598073623252005</v>
+        <v>-0.1176370548720008</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.029224374894498</v>
+        <v>-3.822248159269651</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.7573175991663126</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.469269406820427</v>
+        <v>-8.416009918860285</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1715249733685453</v>
+        <v>-0.1409937231416401</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.426929258317611</v>
+        <v>-4.223343949128771</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.7344692756291197</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.976998819971526</v>
+        <v>-7.908866475983184</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1202293308346626</v>
+        <v>-0.08553472830408848</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.397288284683943</v>
+        <v>-4.183333871644455</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.7142847153585061</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.500871042526475</v>
+        <v>-7.424359624719427</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1686184821376821</v>
+        <v>-0.1392524468636905</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.395402993074734</v>
+        <v>-4.185782132275858</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.7011192136026162</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.127766596142965</v>
+        <v>-7.074585661999873</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3228196250075318</v>
+        <v>-0.2972765421633242</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.642690409149257</v>
+        <v>-4.433239748287323</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.6969773359410406</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.764559930707801</v>
+        <v>-6.69977921624694</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2753338426005913</v>
+        <v>-0.2446454847395854</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.922171797911583</v>
+        <v>-4.715876382034505</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.7054502488053017</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.520637236463602</v>
+        <v>-6.450724339288785</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3863827553041118</v>
+        <v>-0.3609182262769546</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.902782097402986</v>
+        <v>-4.70711763143339</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.7288345564753993</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.354103144316847</v>
+        <v>-6.289008214587785</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.438948351213642</v>
+        <v>-0.416534328748607</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.005478120893486</v>
+        <v>-4.82028749719727</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.7669277016286594</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.071021372273045</v>
+        <v>-6.012236932513695</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4022637186511255</v>
+        <v>-0.3850997096256227</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.999298553952191</v>
+        <v>-4.819986374231911</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.8220722961405608</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.931732362339922</v>
+        <v>-5.876312644410896</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6524183490479855</v>
+        <v>-0.6391689385721587</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.091285073718159</v>
+        <v>-4.918361937784641</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.8945625904340991</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.706335276616766</v>
+        <v>-5.642457931051984</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6098683648123758</v>
+        <v>-0.5858570814006502</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.947819619178524</v>
+        <v>-4.782987526401193</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.9818329027996041</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.577873601133749</v>
+        <v>-5.518984422951665</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.699760116123667</v>
+        <v>-0.6833292760573008</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.914643723777591</v>
+        <v>-4.757968135670654</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.082295177567909</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.56839477387634</v>
+        <v>-5.500210060676631</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7867191915984115</v>
+        <v>-0.7768345029529083</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.798789935931157</v>
+        <v>-4.658636834010479</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.191350539455595</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.609845004673245</v>
+        <v>-5.535166509264039</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8418116019563948</v>
+        <v>-0.8340871432797764</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.610522621067136</v>
+        <v>-4.46932213491912</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.303129346732362</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.847247732102264</v>
+        <v>-5.772516867481691</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7387228093806437</v>
+        <v>-0.7265600600406802</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.512827857262176</v>
+        <v>-4.355563115527362</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.413660531389381</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.038866676493766</v>
+        <v>-5.974858407900568</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.054941199916853</v>
+        <v>-1.056525368560702</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.3493311793747</v>
+        <v>-4.188544608175463</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.517220450893988</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.566119896535758</v>
+        <v>-6.501299905166372</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9675631707511737</v>
+        <v>-0.969553200783116</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.193310206409851</v>
+        <v>-4.024720622716944</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.608254262642105</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.027414094861134</v>
+        <v>-6.965317302482828</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.018976644010632</v>
+        <v>-1.028403102056675</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.109532560525646</v>
+        <v>-3.944857575382415</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.683364247016699</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.608149372011578</v>
+        <v>-7.540187227960178</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.102989951345988</v>
+        <v>-1.117024899992318</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.727237317547245</v>
+        <v>-3.545228123441569</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.738348237697571</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.034879890834798</v>
+        <v>-7.964836070631563</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.05825355253581</v>
+        <v>-1.081832789953759</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.531258636309447</v>
+        <v>-3.338120984788304</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.77055550782965</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.504684086007297</v>
+        <v>-8.437572941640608</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.248157405255047</v>
+        <v>-1.268568305385298</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.167004586646945</v>
+        <v>-2.970685505535262</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.778485732905721</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.447421536731465</v>
+        <v>-9.379747423342582</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.170192741832568</v>
+        <v>-1.192004518366884</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.159607435541369</v>
+        <v>-2.949292682691882</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.759962212248833</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.26169731197262</v>
+        <v>-10.20279504148769</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.256549571376593</v>
+        <v>-1.283873207407276</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.984654992667384</v>
+        <v>-2.773319040196242</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.714028465292787</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.08914394387255</v>
+        <v>-11.03668308638575</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.350539213477345</v>
+        <v>-1.390614752475868</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.615844821615961</v>
+        <v>-2.400332424538308</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.637889679136596</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.29046746802365</v>
+        <v>-12.25198918997181</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.437105519866837</v>
+        <v>-1.468356846750038</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.505843293139778</v>
+        <v>-2.293682525589607</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.527958679562619</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.16367169835541</v>
+        <v>-13.13692412364976</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.526067717676366</v>
+        <v>-1.565305349293019</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.17234306285249</v>
+        <v>-1.949944114480089</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.381059304703249</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33600886401493</v>
+        <v>-14.32831058994399</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.714518324780171</v>
+        <v>-1.771509119050205</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.911766959393616</v>
+        <v>-1.704987128311394</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.190367065958328</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42456838379024</v>
+        <v>-15.42865318227686</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.757984770214702</v>
+        <v>-1.814320949342649</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.507306447704173</v>
+        <v>-1.290772851004865</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.9511124169971877</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.82638743365954</v>
+        <v>-16.83950592110694</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.773774087441823</v>
+        <v>-1.835504295340562</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.189215857861596</v>
+        <v>-0.9830513650129357</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6583235221186963</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.48184366648159</v>
+        <v>-18.53087434062385</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.003020310200447</v>
+        <v>-2.06403044144289</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.9856436409755974</v>
+        <v>-0.7734043196083761</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.304383866399206</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.09358470011512</v>
+        <v>-20.14349255854778</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.230001564567452</v>
+        <v>-2.286285374484032</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.680737000094639</v>
+        <v>-0.4817339969004028</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1107601618138134</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.91266853385306</v>
+        <v>-21.97032703556803</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.426543214827444</v>
+        <v>-2.494295882033376</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.8140559199319356</v>
+        <v>-0.6425336604024823</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5896041889100528</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.62578326839008</v>
+        <v>-23.69188630543795</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.528820284627007</v>
+        <v>-2.595839782873803</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.6406221841875903</v>
+        <v>-0.4638368189157632</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.133942128058037</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.69172247220877</v>
+        <v>-25.76840408995276</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.724091981511352</v>
+        <v>-2.772664425054155</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6297948497374829</v>
+        <v>-0.4619646196093964</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.733985231746585</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.9481939592831</v>
+        <v>-28.03317609702874</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.590982538519523</v>
+        <v>-2.645381056826895</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.773600704151002</v>
+        <v>-0.5976925231695706</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.385480795079905</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.23002523696185</v>
+        <v>-30.31517757464444</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.090336061205797</v>
+        <v>-3.135412859889859</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.12727617311739</v>
+        <v>-0.9788880127092667</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.086840879321673</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.40411995455604</v>
+        <v>-32.49652542801294</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.151110530997089</v>
+        <v>-3.196213514286836</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.341112755431302</v>
+        <v>-1.202884222028358</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.815146526967616</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.63313688257127</v>
+        <v>-34.72208598807796</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.509119552204088</v>
+        <v>-3.57345512836833</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.563289134655393</v>
+        <v>-1.43651636623896</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.577859413046792</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.13959280010552</v>
+        <v>-37.22848953640084</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.757545998625841</v>
+        <v>-3.821999405515658</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.969176707354585</v>
+        <v>-1.862094762412107</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.341983670134434</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.65982182022926</v>
+        <v>-39.76161447482368</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.647243347184299</v>
+        <v>-3.719277197419475</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.438666687258882</v>
+        <v>-2.338994985724821</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.123090504370388</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.2452505085048</v>
+        <v>-42.33066469224422</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.83930742987242</v>
+        <v>-3.901482776067777</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.778713068967033</v>
+        <v>-2.698967852358079</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.857663171972228</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.52335047987366</v>
+        <v>-44.58100898158862</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.075950803736618</v>
+        <v>-4.146204100785321</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.369647250031181</v>
+        <v>-3.305809181374924</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.622749483309483</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.84366003560424</v>
+        <v>-46.89004606457248</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.214873229190174</v>
+        <v>-4.290599108826718</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.633614259926062</v>
+        <v>-3.584334832029805</v>
       </c>
     </row>
   </sheetData>
